--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H2">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I2">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J2">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>12.84882778612878</v>
+        <v>14.44114820698267</v>
       </c>
       <c r="R2">
-        <v>12.84882778612878</v>
+        <v>86.64688924189601</v>
       </c>
       <c r="S2">
-        <v>0.01000941516623946</v>
+        <v>0.01009722509821815</v>
       </c>
       <c r="T2">
-        <v>0.01000941516623946</v>
+        <v>0.00829742991075862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H3">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I3">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J3">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>36.08289769098888</v>
+        <v>40.06185847833734</v>
       </c>
       <c r="R3">
-        <v>36.08289769098888</v>
+        <v>360.556726305036</v>
       </c>
       <c r="S3">
-        <v>0.02810907807325102</v>
+        <v>0.02801118007452749</v>
       </c>
       <c r="T3">
-        <v>0.02810907807325102</v>
+        <v>0.03452742725727369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H4">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I4">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J4">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>3.02510479248977</v>
+        <v>5.444561697144667</v>
       </c>
       <c r="R4">
-        <v>3.02510479248977</v>
+        <v>49.001055274302</v>
       </c>
       <c r="S4">
-        <v>0.002356598616887035</v>
+        <v>0.003806827838704994</v>
       </c>
       <c r="T4">
-        <v>0.002356598616887035</v>
+        <v>0.004692411063444577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H5">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I5">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J5">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>3.107020599156701</v>
+        <v>3.209994942525333</v>
       </c>
       <c r="R5">
-        <v>3.107020599156701</v>
+        <v>28.889954482728</v>
       </c>
       <c r="S5">
-        <v>0.002420412167138825</v>
+        <v>0.002244422744941297</v>
       </c>
       <c r="T5">
-        <v>0.002420412167138825</v>
+        <v>0.00276654331785907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H6">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I6">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J6">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>47.2630836526694</v>
+        <v>3.448248515244223</v>
       </c>
       <c r="R6">
-        <v>47.2630836526694</v>
+        <v>31.034236637198</v>
       </c>
       <c r="S6">
-        <v>0.03681859810020898</v>
+        <v>0.002411009218517829</v>
       </c>
       <c r="T6">
-        <v>0.03681859810020898</v>
+        <v>0.002971882840619483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7869505606232</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H7">
-        <v>21.7869505606232</v>
+        <v>13.740554</v>
       </c>
       <c r="I7">
-        <v>0.4007065611131276</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J7">
-        <v>0.4007065611131276</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>64.58844118350899</v>
+        <v>49.97493077960601</v>
       </c>
       <c r="R7">
-        <v>64.58844118350899</v>
+        <v>299.849584677636</v>
       </c>
       <c r="S7">
-        <v>0.05031529206453486</v>
+        <v>0.03494238256661347</v>
       </c>
       <c r="T7">
-        <v>0.05031529206453486</v>
+        <v>0.02871402463955697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H8">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I8">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J8">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>181.3813800011383</v>
+        <v>70.99276292191867</v>
       </c>
       <c r="R8">
-        <v>181.3813800011383</v>
+        <v>425.956577531512</v>
       </c>
       <c r="S8">
-        <v>0.1412986122996232</v>
+        <v>0.04963801335550606</v>
       </c>
       <c r="T8">
-        <v>0.1412986122996232</v>
+        <v>0.04079021045091823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H9">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I9">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J9">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>15.20658586261158</v>
+        <v>196.9443135961213</v>
       </c>
       <c r="R9">
-        <v>15.20658586261158</v>
+        <v>1772.498822365092</v>
       </c>
       <c r="S9">
-        <v>0.01184614142966936</v>
+        <v>0.1377031131937672</v>
       </c>
       <c r="T9">
-        <v>0.01184614142966936</v>
+        <v>0.1697370196917034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H10">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I10">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J10">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>15.61835994418333</v>
+        <v>26.76549483733266</v>
       </c>
       <c r="R10">
-        <v>15.61835994418333</v>
+        <v>240.889453535994</v>
       </c>
       <c r="S10">
-        <v>0.01216691915396871</v>
+        <v>0.01871438630531243</v>
       </c>
       <c r="T10">
-        <v>0.01216691915396871</v>
+        <v>0.02306791824200195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H11">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I11">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J11">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>237.5818984784943</v>
+        <v>15.78035255015733</v>
       </c>
       <c r="R11">
-        <v>237.5818984784943</v>
+        <v>142.023172951416</v>
       </c>
       <c r="S11">
-        <v>0.1850795961653315</v>
+        <v>0.01103359438906219</v>
       </c>
       <c r="T11">
-        <v>0.1850795961653315</v>
+        <v>0.01360034195778287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H12">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I12">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J12">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>81.28690014689195</v>
+        <v>16.95160840605622</v>
       </c>
       <c r="R12">
-        <v>81.28690014689195</v>
+        <v>152.564475654506</v>
       </c>
       <c r="S12">
-        <v>0.06332362334447886</v>
+        <v>0.01185253439681717</v>
       </c>
       <c r="T12">
-        <v>0.06332362334447886</v>
+        <v>0.01460979216554275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H13">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I13">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J13">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>228.2750574946911</v>
+        <v>245.677030802882</v>
       </c>
       <c r="R13">
-        <v>228.2750574946911</v>
+        <v>1474.062184817292</v>
       </c>
       <c r="S13">
-        <v>0.1778294378751233</v>
+        <v>0.1717769422433538</v>
       </c>
       <c r="T13">
-        <v>0.1778294378751233</v>
+        <v>0.1411583008880511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H14">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I14">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J14">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>19.13804086209859</v>
+        <v>88.50376105058135</v>
       </c>
       <c r="R14">
-        <v>19.13804086209859</v>
+        <v>531.0225663034881</v>
       </c>
       <c r="S14">
-        <v>0.01490879943647493</v>
+        <v>0.06188167204977044</v>
       </c>
       <c r="T14">
-        <v>0.01490879943647493</v>
+        <v>0.05085147964901075</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H15">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I15">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J15">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>19.6562735061827</v>
+        <v>245.5223850063787</v>
       </c>
       <c r="R15">
-        <v>19.6562735061827</v>
+        <v>2209.701465057408</v>
       </c>
       <c r="S15">
-        <v>0.01531250985844322</v>
+        <v>0.171668814177953</v>
       </c>
       <c r="T15">
-        <v>0.01531250985844322</v>
+        <v>0.2116041694102632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H16">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I16">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J16">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>299.0054521281942</v>
+        <v>33.36744284891734</v>
       </c>
       <c r="R16">
-        <v>299.0054521281942</v>
+        <v>300.306985640256</v>
       </c>
       <c r="S16">
-        <v>0.2329293969175343</v>
+        <v>0.0233304565930941</v>
       </c>
       <c r="T16">
-        <v>0.2329293969175343</v>
+        <v>0.02875782600925021</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H17">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I17">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J17">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>2.462213766964821</v>
+        <v>19.67271724484267</v>
       </c>
       <c r="R17">
-        <v>2.462213766964821</v>
+        <v>177.054455203584</v>
       </c>
       <c r="S17">
-        <v>0.00191809869599059</v>
+        <v>0.01375512884901541</v>
       </c>
       <c r="T17">
-        <v>0.00191809869599059</v>
+        <v>0.01695498759728057</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H18">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I18">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J18">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>6.914545741102481</v>
+        <v>21.13287380352712</v>
       </c>
       <c r="R18">
-        <v>6.914545741102481</v>
+        <v>190.1958642317441</v>
       </c>
       <c r="S18">
-        <v>0.005386527094974793</v>
+        <v>0.01477606771345747</v>
       </c>
       <c r="T18">
-        <v>0.005386527094974793</v>
+        <v>0.01821342770163742</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H19">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I19">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J19">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>0.5796991593755119</v>
+        <v>306.2754615383681</v>
       </c>
       <c r="R19">
-        <v>0.5796991593755119</v>
+        <v>1837.652769230208</v>
       </c>
       <c r="S19">
-        <v>0.0004515936904356108</v>
+        <v>0.2141472570524716</v>
       </c>
       <c r="T19">
-        <v>0.0004515936904356108</v>
+        <v>0.1759762547323676</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H20">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I20">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J20">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>0.5953966401313119</v>
+        <v>0.2649139692146668</v>
       </c>
       <c r="R20">
-        <v>0.5953966401313119</v>
+        <v>1.589483815288</v>
       </c>
       <c r="S20">
-        <v>0.0004638222457998973</v>
+        <v>0.0001852273753086712</v>
       </c>
       <c r="T20">
-        <v>0.0004638222457998973</v>
+        <v>0.0001522112411308626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.252062</v>
+      </c>
+      <c r="I21">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J21">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N21">
+        <v>26.240334</v>
+      </c>
+      <c r="O21">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P21">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q21">
+        <v>0.7349101187453335</v>
+      </c>
+      <c r="R21">
+        <v>6.614191068708</v>
+      </c>
+      <c r="S21">
+        <v>0.0005138478457233637</v>
+      </c>
+      <c r="T21">
+        <v>0.000633384386781124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.252062</v>
+      </c>
+      <c r="I22">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J22">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.188721</v>
+      </c>
+      <c r="N22">
+        <v>3.566163</v>
+      </c>
+      <c r="O22">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P22">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q22">
+        <v>0.09987713090066667</v>
+      </c>
+      <c r="R22">
+        <v>0.898894178106</v>
+      </c>
+      <c r="S22">
+        <v>6.983391198634772E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.607939079268326E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.252062</v>
+      </c>
+      <c r="I23">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J23">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.700844</v>
+      </c>
+      <c r="N23">
+        <v>2.102532</v>
+      </c>
+      <c r="O23">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P23">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q23">
+        <v>0.05888538010933334</v>
+      </c>
+      <c r="R23">
+        <v>0.529968420984</v>
+      </c>
+      <c r="S23">
+        <v>4.117255286325377E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.075053318710387E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.252062</v>
+      </c>
+      <c r="I24">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J24">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.258587</v>
+      </c>
+      <c r="O24">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P24">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q24">
+        <v>0.0632559951548889</v>
+      </c>
+      <c r="R24">
+        <v>0.5693039563940001</v>
+      </c>
+      <c r="S24">
+        <v>4.422847911649276E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.451736025870778E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.252062</v>
+      </c>
+      <c r="I25">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J25">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.911117</v>
+      </c>
+      <c r="N25">
+        <v>21.822234</v>
+      </c>
+      <c r="O25">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P25">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q25">
+        <v>0.9167593244180001</v>
+      </c>
+      <c r="R25">
+        <v>5.500555946508</v>
+      </c>
+      <c r="S25">
+        <v>0.0006409964863502391</v>
+      </c>
+      <c r="T25">
+        <v>0.0005267410963703509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.939134</v>
+      </c>
+      <c r="H26">
+        <v>1.878268</v>
+      </c>
+      <c r="I26">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J26">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.152962</v>
+      </c>
+      <c r="N26">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P26">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q26">
+        <v>2.961053814908</v>
+      </c>
+      <c r="R26">
+        <v>11.844215259632</v>
+      </c>
+      <c r="S26">
+        <v>0.002070363552020538</v>
+      </c>
+      <c r="T26">
+        <v>0.001134218975713845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.939134</v>
+      </c>
+      <c r="H27">
+        <v>1.878268</v>
+      </c>
+      <c r="I27">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J27">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N27">
+        <v>26.240334</v>
+      </c>
+      <c r="O27">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P27">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q27">
+        <v>8.214396610252001</v>
+      </c>
+      <c r="R27">
+        <v>49.286379661512</v>
+      </c>
+      <c r="S27">
+        <v>0.005743491475258851</v>
+      </c>
+      <c r="T27">
+        <v>0.004719734134421723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.939134</v>
+      </c>
+      <c r="H28">
+        <v>1.878268</v>
+      </c>
+      <c r="I28">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J28">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.188721</v>
+      </c>
+      <c r="N28">
+        <v>3.566163</v>
+      </c>
+      <c r="O28">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P28">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q28">
+        <v>1.116368307614</v>
+      </c>
+      <c r="R28">
+        <v>6.698209845684</v>
+      </c>
+      <c r="S28">
+        <v>0.0007805627317809112</v>
+      </c>
+      <c r="T28">
+        <v>0.0006414301449063786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.939134</v>
+      </c>
+      <c r="H29">
+        <v>1.878268</v>
+      </c>
+      <c r="I29">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J29">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.700844</v>
+      </c>
+      <c r="N29">
+        <v>2.102532</v>
+      </c>
+      <c r="O29">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P29">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q29">
+        <v>0.658186429096</v>
+      </c>
+      <c r="R29">
+        <v>3.949118574576</v>
+      </c>
+      <c r="S29">
+        <v>0.000460202778610171</v>
+      </c>
+      <c r="T29">
+        <v>0.0003781732370142077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="H21">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="I21">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="J21">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="N21">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="O21">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="P21">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="Q21">
-        <v>9.056998597525309</v>
-      </c>
-      <c r="R21">
-        <v>9.056998597525309</v>
-      </c>
-      <c r="S21">
-        <v>0.007055527603891473</v>
-      </c>
-      <c r="T21">
-        <v>0.007055527603891473</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.939134</v>
+      </c>
+      <c r="H30">
+        <v>1.878268</v>
+      </c>
+      <c r="I30">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J30">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.258587</v>
+      </c>
+      <c r="O30">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P30">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q30">
+        <v>0.7070386145526668</v>
+      </c>
+      <c r="R30">
+        <v>4.242231687316001</v>
+      </c>
+      <c r="S30">
+        <v>0.0004943601396472493</v>
+      </c>
+      <c r="T30">
+        <v>0.0004062421674762659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.939134</v>
+      </c>
+      <c r="H31">
+        <v>1.878268</v>
+      </c>
+      <c r="I31">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J31">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.911117</v>
+      </c>
+      <c r="N31">
+        <v>21.822234</v>
+      </c>
+      <c r="O31">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P31">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q31">
+        <v>10.247000952678</v>
+      </c>
+      <c r="R31">
+        <v>40.988003810712</v>
+      </c>
+      <c r="S31">
+        <v>0.00716468481022977</v>
+      </c>
+      <c r="T31">
+        <v>0.003925069806624347</v>
       </c>
     </row>
   </sheetData>
